--- a/Log Book Pribadi.xlsx
+++ b/Log Book Pribadi.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kuliah\Projek\Projek 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\C-70\Documents\GitHub\Project-1-Kelompok-3\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="62">
   <si>
     <t>Nama Kegiatan</t>
   </si>
@@ -183,12 +183,42 @@
   </si>
   <si>
     <t>Mengedit data yang terdapat dalam excel, lalu meng-exportnya ke pdf, dan dari pdf di scrape menggunakan tabula sehingga datanya lebih rapih dan mudah untuk diproses.</t>
+  </si>
+  <si>
+    <t>Merancang desain UI (Mockup) dan nama program yang akan dibuat</t>
+  </si>
+  <si>
+    <t>Bingung dalam menentukan desian untuk program, dan menentukan nama dari program.</t>
+  </si>
+  <si>
+    <t>Mencari referensi visualisasi data di internet untuk diimplementasikan di program</t>
+  </si>
+  <si>
+    <t>Kesulitan dalam menentukan visualisasi data yang akan digunakan yang tepat untuk program yang dibuat.</t>
+  </si>
+  <si>
+    <t>Melihat youtube terkait visualisasi pada java dan mendiskusikannya.</t>
+  </si>
+  <si>
+    <t>Mendiskusikan dengan teman kelompok untuk desain di aplikasi Balsamiq, dan mendiskusikan nama yang akan dipakai untuk nama program.</t>
+  </si>
+  <si>
+    <t>Cara supaya data-data (kategori) dan harga jual satuan dari suatu barang dapat lebih cepat di dapatkan dari excel (csv).</t>
+  </si>
+  <si>
+    <t>Mengumpulkan kategori-kategori dari barang yang ada pada excel (csv) selama 3 hari di bulan november 2017 per orang.</t>
+  </si>
+  <si>
+    <t>Mengambil nama barang dan harga jual dibagi dengan jumlah (pcs) sehingga mendapatkan harga jual satuan, lalu setelah semua dikumpulkan dibuat header dari tiap kolom (nama, kategori, dan harga) lalu remove duplicated supaya tidak ada nama barang yang sama (unique).</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-13809]dd\ mmmm\ yyyy;@"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -270,11 +300,36 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -284,22 +339,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -582,16 +655,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:H24"/>
+  <dimension ref="C2:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H21" sqref="C1:H24"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" style="8" customWidth="1"/>
     <col min="5" max="5" width="14" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="44.42578125" customWidth="1"/>
     <col min="7" max="7" width="49.5703125" customWidth="1"/>
@@ -599,314 +672,374 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8" t="s">
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="10" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="3" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
     </row>
     <row r="4" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C4" s="9">
+      <c r="C4" s="2">
         <v>1</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="2" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="5" spans="3:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="2">
+      <c r="C5" s="11">
         <v>2</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="11" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="6" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
     </row>
     <row r="7" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
     </row>
     <row r="8" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
     </row>
     <row r="9" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C9" s="2">
+      <c r="C9" s="11">
         <v>3</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="H9" s="11" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="10" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
     </row>
     <row r="11" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
     </row>
     <row r="12" spans="3:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="C12" s="9">
+      <c r="C12" s="2">
         <v>4</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="F12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G12" s="9" t="s">
+      <c r="G12" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="H12" s="9" t="s">
+      <c r="H12" s="2" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="13" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C13" s="5">
+      <c r="C13" s="17">
         <v>5</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F13" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="G13" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="H13" s="11" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="14" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C14" s="7"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
     </row>
     <row r="15" spans="3:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9" t="s">
+      <c r="C15" s="2"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F15" s="9" t="s">
+      <c r="F15" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G15" s="9" t="s">
+      <c r="G15" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H15" s="9" t="s">
+      <c r="H15" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="3:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="C16" s="9">
+    <row r="16" spans="3:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="C16" s="2">
         <v>6</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="E16" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F16" s="9" t="s">
+      <c r="F16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G16" s="9" t="s">
+      <c r="G16" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="H16" s="9" t="s">
+      <c r="H16" s="2" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="17" spans="3:8" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="9" t="s">
+      <c r="C17" s="3"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F17" s="10" t="s">
+      <c r="F17" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G17" s="9" t="s">
+      <c r="G17" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="H17" s="9" t="s">
+      <c r="H17" s="2" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="18" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C18" s="2">
+      <c r="C18" s="11">
         <v>7</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E18" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="F18" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="G18" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="H18" s="2" t="s">
+      <c r="H18" s="11" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="19" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
     </row>
     <row r="20" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
     </row>
     <row r="21" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C21" s="2">
+      <c r="C21" s="11">
         <v>8</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E21" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F21" s="5" t="s">
+      <c r="F21" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="G21" s="2" t="s">
+      <c r="G21" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="H21" s="2" t="s">
+      <c r="H21" s="11" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="22" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
     </row>
     <row r="23" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
     </row>
     <row r="24" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+    </row>
+    <row r="25" spans="3:8" s="24" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="C25" s="4">
+        <v>9</v>
+      </c>
+      <c r="D25" s="23">
+        <v>43193</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G25" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="3:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="C26" s="5">
+        <v>10</v>
+      </c>
+      <c r="D26" s="9">
+        <v>43207</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="3:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="C27" s="5">
+        <v>11</v>
+      </c>
+      <c r="D27" s="9">
+        <v>43214</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>61</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="33">
